--- a/sampleExcels/ResearchProjectFaculty.xlsx
+++ b/sampleExcels/ResearchProjectFaculty.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Scheme or Project Name</t>
   </si>
   <si>
-    <t>Program Title</t>
-  </si>
-  <si>
     <t>Principal Invigilator Name</t>
   </si>
   <si>
@@ -33,9 +30,6 @@
     <t>Wheather Government / Non-Government</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>Award Year</t>
   </si>
   <si>
@@ -90,16 +84,10 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>bba</t>
-  </si>
-  <si>
     <t>vys</t>
   </si>
   <si>
     <t>cfr</t>
-  </si>
-  <si>
-    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -454,29 +442,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,150 +493,132 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>2023</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3">
-        <v>2019</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>33</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"Minor,Major"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"Ongoing,Completed"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I200">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G200">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D200">
       <formula1>"Government,Non-Government"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>44942</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>"1994-95,1995-96,1996-97,1997-98,1998-99,1999-20,2000-01,2001-02,2002-03,2003-04,2004-05,2005-06,2006-07,2007-08,2008-09,2009-10,2010-11,2011-12,2012-13,2013-14,2014-15,2015-16,2016-17,2017-18,2018-19,2019-20,2020-21,2021-22,2022-23,"</formula1>
     </dataValidation>
   </dataValidations>
